--- a/Code/Results/Cases/Case_3_197/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_197/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9093712460835093</v>
+        <v>0.544052880380832</v>
       </c>
       <c r="C2">
-        <v>0.1088657897770915</v>
+        <v>0.109194462380934</v>
       </c>
       <c r="D2">
-        <v>0.08507297832263561</v>
+        <v>0.1420870195477448</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8980905276391837</v>
+        <v>1.970106693555437</v>
       </c>
       <c r="G2">
-        <v>0.0008340929743926623</v>
+        <v>0.002514897477819356</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5599900096627266</v>
+        <v>1.294185951249531</v>
       </c>
       <c r="J2">
-        <v>0.08757877251238888</v>
+        <v>0.2266373562450124</v>
       </c>
       <c r="K2">
-        <v>0.8168347233456075</v>
+        <v>0.3130208296777539</v>
       </c>
       <c r="L2">
-        <v>0.1905329408434469</v>
+        <v>0.346456203045534</v>
       </c>
       <c r="M2">
-        <v>0.2077533532021008</v>
+        <v>0.2020221111795522</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.311937357197962</v>
+        <v>5.127613954010357</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7912368911787269</v>
+        <v>0.5107020152577775</v>
       </c>
       <c r="C3">
-        <v>0.1038721234148667</v>
+        <v>0.1074082402434513</v>
       </c>
       <c r="D3">
-        <v>0.0775484502151329</v>
+        <v>0.1406120652089413</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8924430107357324</v>
+        <v>1.980169137193968</v>
       </c>
       <c r="G3">
-        <v>0.0008376892878638083</v>
+        <v>0.002517274981234144</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5698729856238209</v>
+        <v>1.304014505332301</v>
       </c>
       <c r="J3">
-        <v>0.0896730277633857</v>
+        <v>0.2280470300602158</v>
       </c>
       <c r="K3">
-        <v>0.7113961288456068</v>
+        <v>0.2813979809856022</v>
       </c>
       <c r="L3">
-        <v>0.1766351701420916</v>
+        <v>0.3443318053242095</v>
       </c>
       <c r="M3">
-        <v>0.1829129097759292</v>
+        <v>0.1957320833141871</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.322115400609704</v>
+        <v>5.160799965435857</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7188549259594765</v>
+        <v>0.4903629570241606</v>
       </c>
       <c r="C4">
-        <v>0.100801792875238</v>
+        <v>0.1062998747161998</v>
       </c>
       <c r="D4">
-        <v>0.07297974727356404</v>
+        <v>0.1397523330943642</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8903228059001478</v>
+        <v>1.987159608823063</v>
       </c>
       <c r="G4">
-        <v>0.0008399738314504917</v>
+        <v>0.002518813839823748</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.576795206594344</v>
+        <v>1.310552747517324</v>
       </c>
       <c r="J4">
-        <v>0.0910361828603321</v>
+        <v>0.2289670855002797</v>
       </c>
       <c r="K4">
-        <v>0.646685427466366</v>
+        <v>0.2620010781769508</v>
       </c>
       <c r="L4">
-        <v>0.1682598267089901</v>
+        <v>0.3431485506743286</v>
       </c>
       <c r="M4">
-        <v>0.1677439499680453</v>
+        <v>0.1919386739211895</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.332086068574796</v>
+        <v>5.183332688975668</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.689388182632257</v>
+        <v>0.4821101143323574</v>
       </c>
       <c r="C5">
-        <v>0.09954916020566174</v>
+        <v>0.1058453046469126</v>
       </c>
       <c r="D5">
-        <v>0.07113022455329343</v>
+        <v>0.1394135914779113</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8897868725632136</v>
+        <v>1.990212732729162</v>
       </c>
       <c r="G5">
-        <v>0.0008409242947839533</v>
+        <v>0.002519460875702515</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.579825051368168</v>
+        <v>1.313343843177243</v>
       </c>
       <c r="J5">
-        <v>0.09161088890864377</v>
+        <v>0.22935574515075</v>
       </c>
       <c r="K5">
-        <v>0.6203148068541395</v>
+        <v>0.2541021463615039</v>
       </c>
       <c r="L5">
-        <v>0.1648846626339093</v>
+        <v>0.3426969434719211</v>
       </c>
       <c r="M5">
-        <v>0.1615811980492126</v>
+        <v>0.1904102539501338</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.33705546749259</v>
+        <v>5.193057653636089</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6844967808582112</v>
+        <v>0.4807418989637426</v>
       </c>
       <c r="C6">
-        <v>0.09934106307535728</v>
+        <v>0.1057696489250119</v>
       </c>
       <c r="D6">
-        <v>0.07082383454400798</v>
+        <v>0.1393580465987796</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8897173904801789</v>
+        <v>1.990732057052043</v>
       </c>
       <c r="G6">
-        <v>0.0008410833040155387</v>
+        <v>0.002519569521453604</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5803406129122521</v>
+        <v>1.313814958543762</v>
       </c>
       <c r="J6">
-        <v>0.09170747228628429</v>
+        <v>0.2294211116880867</v>
       </c>
       <c r="K6">
-        <v>0.6159357371062697</v>
+        <v>0.2527908801087904</v>
       </c>
       <c r="L6">
-        <v>0.1643264529684032</v>
+        <v>0.3426238048039778</v>
       </c>
       <c r="M6">
-        <v>0.1605589467003661</v>
+        <v>0.1901575178830264</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.337934531825113</v>
+        <v>5.194705267640401</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7184574192379785</v>
+        <v>0.4902515117327937</v>
       </c>
       <c r="C7">
-        <v>0.1007849057956278</v>
+        <v>0.1062937559491459</v>
       </c>
       <c r="D7">
-        <v>0.07295475516946937</v>
+        <v>0.1397477176262214</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8903142636345578</v>
+        <v>1.987199956187325</v>
       </c>
       <c r="G7">
-        <v>0.0008399865704563948</v>
+        <v>0.002518822485126426</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5768352294125521</v>
+        <v>1.310589876028185</v>
       </c>
       <c r="J7">
-        <v>0.09104385605538567</v>
+        <v>0.2289722714793978</v>
       </c>
       <c r="K7">
-        <v>0.6463297959844567</v>
+        <v>0.2618945276057758</v>
       </c>
       <c r="L7">
-        <v>0.1682141571799107</v>
+        <v>0.3431423361722068</v>
       </c>
       <c r="M7">
-        <v>0.167660763948092</v>
+        <v>0.1919179903595598</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.332149456158575</v>
+        <v>5.183461645285433</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8686011708729495</v>
+        <v>0.5325251391345489</v>
       </c>
       <c r="C8">
-        <v>0.1071445997400602</v>
+        <v>0.1085809953457826</v>
       </c>
       <c r="D8">
-        <v>0.08246744514917026</v>
+        <v>0.1415689680749423</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8958569925726607</v>
+        <v>1.97340781933395</v>
       </c>
       <c r="G8">
-        <v>0.0008353173024869963</v>
+        <v>0.002515700866398975</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5632168544097489</v>
+        <v>1.297470405968681</v>
       </c>
       <c r="J8">
-        <v>0.08828469748102918</v>
+        <v>0.2271121118817003</v>
       </c>
       <c r="K8">
-        <v>0.7804686216676089</v>
+        <v>0.3021134948064628</v>
       </c>
       <c r="L8">
-        <v>0.1857070567535004</v>
+        <v>0.3456986390755148</v>
       </c>
       <c r="M8">
-        <v>0.1991697432905397</v>
+        <v>0.1998391409402949</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.314656227875346</v>
+        <v>5.138609207614081</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.164690518708653</v>
+        <v>0.6164979974180085</v>
       </c>
       <c r="C9">
-        <v>0.1196021989101936</v>
+        <v>0.1129734287138646</v>
       </c>
       <c r="D9">
-        <v>0.1015619387846698</v>
+        <v>0.1455020098360151</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9179275672913647</v>
+        <v>1.952795049022704</v>
       </c>
       <c r="G9">
-        <v>0.0008267535347703767</v>
+        <v>0.002510204066756931</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5435602514635249</v>
+        <v>1.275733266319772</v>
       </c>
       <c r="J9">
-        <v>0.08349747042720068</v>
+        <v>0.2238958216218254</v>
       </c>
       <c r="K9">
-        <v>1.044130099699032</v>
+        <v>0.3811197199326841</v>
       </c>
       <c r="L9">
-        <v>0.2213539259119557</v>
+        <v>0.3516680141623425</v>
       </c>
       <c r="M9">
-        <v>0.2617263170041362</v>
+        <v>0.215911800475979</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.311277284186957</v>
+        <v>5.067744565034843</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.383913309354625</v>
+        <v>0.67882125468401</v>
       </c>
       <c r="C10">
-        <v>0.128776528791029</v>
+        <v>0.1161433632128706</v>
       </c>
       <c r="D10">
-        <v>0.1159078611349713</v>
+        <v>0.1486089792145435</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9417206426070308</v>
+        <v>1.941560474248043</v>
       </c>
       <c r="G10">
-        <v>0.000820803248657187</v>
+        <v>0.002506542699955731</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.53381409707033</v>
+        <v>1.262189133768011</v>
       </c>
       <c r="J10">
-        <v>0.08037528705312802</v>
+        <v>0.2217943980504558</v>
       </c>
       <c r="K10">
-        <v>1.238804789355385</v>
+        <v>0.4392293172484187</v>
       </c>
       <c r="L10">
-        <v>0.2484973298300304</v>
+        <v>0.3566313124179601</v>
       </c>
       <c r="M10">
-        <v>0.3083172935319354</v>
+        <v>0.2280428013658096</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.329698428375821</v>
+        <v>5.026075354328384</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.484170911275726</v>
+        <v>0.7073049387301182</v>
       </c>
       <c r="C11">
-        <v>0.1329622090582916</v>
+        <v>0.1175729242778374</v>
       </c>
       <c r="D11">
-        <v>0.1225146456562527</v>
+        <v>0.1500689957414352</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9543667578234079</v>
+        <v>1.937295958289759</v>
       </c>
       <c r="G11">
-        <v>0.0008181658725583991</v>
+        <v>0.002504958155047063</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5304937216480354</v>
+        <v>1.256553049794377</v>
       </c>
       <c r="J11">
-        <v>0.07904418424724291</v>
+        <v>0.2208948975269749</v>
       </c>
       <c r="K11">
-        <v>1.327717007912895</v>
+        <v>0.4656748833012045</v>
       </c>
       <c r="L11">
-        <v>0.2610845250918175</v>
+        <v>0.3590135513199328</v>
       </c>
       <c r="M11">
-        <v>0.329688435352594</v>
+        <v>0.2336302549098406</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.343101742772291</v>
+        <v>5.009371220390818</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.52222633165232</v>
+        <v>0.7181094440250035</v>
       </c>
       <c r="C12">
-        <v>0.1345496217895032</v>
+        <v>0.1181124548787977</v>
       </c>
       <c r="D12">
-        <v>0.1250290709676989</v>
+        <v>0.1506285122901403</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.959433260354416</v>
+        <v>1.935802550333491</v>
       </c>
       <c r="G12">
-        <v>0.0008171767572308576</v>
+        <v>0.00250436972161793</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5294048345020883</v>
+        <v>1.254494235936967</v>
       </c>
       <c r="J12">
-        <v>0.07855327131922785</v>
+        <v>0.2205623742736513</v>
       </c>
       <c r="K12">
-        <v>1.361448803658249</v>
+        <v>0.4756902933697802</v>
       </c>
       <c r="L12">
-        <v>0.265888188807466</v>
+        <v>0.3599334243002943</v>
       </c>
       <c r="M12">
-        <v>0.3378098957380899</v>
+        <v>0.2357558650575271</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.348942734594402</v>
+        <v>5.003369141360906</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.514026185640262</v>
+        <v>0.7157816954632494</v>
       </c>
       <c r="C13">
-        <v>0.1342076273713033</v>
+        <v>0.1179963382953275</v>
       </c>
       <c r="D13">
-        <v>0.1244869689495687</v>
+        <v>0.1505077161394155</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9583294884859868</v>
+        <v>1.936118783211072</v>
       </c>
       <c r="G13">
-        <v>0.000817389360233605</v>
+        <v>0.002504495936143868</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5296317138543216</v>
+        <v>1.254934283933657</v>
       </c>
       <c r="J13">
-        <v>0.07865840818004699</v>
+        <v>0.2206336292433626</v>
       </c>
       <c r="K13">
-        <v>1.354181073729421</v>
+        <v>0.4735332579812166</v>
       </c>
       <c r="L13">
-        <v>0.2648519356541783</v>
+        <v>0.3597345247295749</v>
       </c>
       <c r="M13">
-        <v>0.336059464280531</v>
+        <v>0.2352976452148212</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.347650012790155</v>
+        <v>5.00464741786945</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.487299868126684</v>
+        <v>0.7081934681035875</v>
       </c>
       <c r="C14">
-        <v>0.1330927548528678</v>
+        <v>0.1176173482470659</v>
       </c>
       <c r="D14">
-        <v>0.1227212510686968</v>
+        <v>0.1501148948121198</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9547779236245688</v>
+        <v>1.937170661410164</v>
       </c>
       <c r="G14">
-        <v>0.0008180843072803047</v>
+        <v>0.002504909511941392</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5304007119421783</v>
+        <v>1.256382158264969</v>
       </c>
       <c r="J14">
-        <v>0.07900353115735292</v>
+        <v>0.2208673784495652</v>
       </c>
       <c r="K14">
-        <v>1.330490816471126</v>
+        <v>0.4664988393415115</v>
       </c>
       <c r="L14">
-        <v>0.2614789643066615</v>
+        <v>0.3590888743521532</v>
       </c>
       <c r="M14">
-        <v>0.3303559986293507</v>
+        <v>0.2338049353881075</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.343566687155402</v>
+        <v>5.008870945953504</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.470941370948168</v>
+        <v>0.703547828881824</v>
       </c>
       <c r="C15">
-        <v>0.1324101935325857</v>
+        <v>0.1173849691316349</v>
       </c>
       <c r="D15">
-        <v>0.1216413658545861</v>
+        <v>0.1498751431448682</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9526391320150864</v>
+        <v>1.937830780340974</v>
       </c>
       <c r="G15">
-        <v>0.0008185112210970737</v>
+        <v>0.002505164348058754</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5308939430248714</v>
+        <v>1.25727884652192</v>
       </c>
       <c r="J15">
-        <v>0.07921665089812358</v>
+        <v>0.221011610633715</v>
       </c>
       <c r="K15">
-        <v>1.315988375778801</v>
+        <v>0.4621901745592254</v>
       </c>
       <c r="L15">
-        <v>0.2594178459044798</v>
+        <v>0.3586957056031679</v>
       </c>
       <c r="M15">
-        <v>0.3268662960537512</v>
+        <v>0.2328918741898249</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.341166542820361</v>
+        <v>5.011500086982721</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.377373081123949</v>
+        <v>0.6769623853922724</v>
       </c>
       <c r="C16">
-        <v>0.1285032833620434</v>
+        <v>0.1160496854903172</v>
       </c>
       <c r="D16">
-        <v>0.1154777984675519</v>
+        <v>0.1485144965090797</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9409321755039031</v>
+        <v>1.941856179674957</v>
       </c>
       <c r="G16">
-        <v>0.0008209769724425549</v>
+        <v>0.002506647879777679</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5340541969856893</v>
+        <v>1.26256802719589</v>
       </c>
       <c r="J16">
-        <v>0.08046409955903222</v>
+        <v>0.221854316766315</v>
       </c>
       <c r="K16">
-        <v>1.233002274600437</v>
+        <v>0.4375012147283428</v>
       </c>
       <c r="L16">
-        <v>0.2476797756269775</v>
+        <v>0.3564781207553267</v>
       </c>
       <c r="M16">
-        <v>0.3069244685540866</v>
+        <v>0.2276790229672301</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.328927194372852</v>
+        <v>5.027212284067275</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.320117573853707</v>
+        <v>0.6606865174078678</v>
       </c>
       <c r="C17">
-        <v>0.1261100839593468</v>
+        <v>0.115227325952489</v>
       </c>
       <c r="D17">
-        <v>0.1117180012330437</v>
+        <v>0.1476916820169123</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9342279314018498</v>
+        <v>1.944542205952054</v>
       </c>
       <c r="G17">
-        <v>0.0008225071496957047</v>
+        <v>0.00250757869426754</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.53628383164925</v>
+        <v>1.265947233091236</v>
       </c>
       <c r="J17">
-        <v>0.08125243600653143</v>
+        <v>0.2223857336876485</v>
       </c>
       <c r="K17">
-        <v>1.182191724169968</v>
+        <v>0.4223578084746862</v>
       </c>
       <c r="L17">
-        <v>0.2405420802413403</v>
+        <v>0.3551494837539337</v>
       </c>
       <c r="M17">
-        <v>0.2947383093089115</v>
+        <v>0.224498666731634</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.322735161059626</v>
+        <v>5.037427607227613</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.287234934972616</v>
+        <v>0.6513375841884965</v>
       </c>
       <c r="C18">
-        <v>0.1247346897302606</v>
+        <v>0.1147531551757339</v>
       </c>
       <c r="D18">
-        <v>0.1095630046286971</v>
+        <v>0.1472228149068684</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.930542380246365</v>
+        <v>1.946166792879566</v>
       </c>
       <c r="G18">
-        <v>0.0008233938273534444</v>
+        <v>0.002508121704208792</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5376705052226853</v>
+        <v>1.267940302686068</v>
       </c>
       <c r="J18">
-        <v>0.08171424135179883</v>
+        <v>0.2226967048892252</v>
       </c>
       <c r="K18">
-        <v>1.152999378525379</v>
+        <v>0.4136488113900896</v>
       </c>
       <c r="L18">
-        <v>0.2364590386726206</v>
+        <v>0.3543970040302327</v>
       </c>
       <c r="M18">
-        <v>0.287745573647868</v>
+        <v>0.2226759140998453</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.319643758043014</v>
+        <v>5.043515123207925</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.276109493936389</v>
+        <v>0.648174367078127</v>
       </c>
       <c r="C19">
-        <v>0.124269177353689</v>
+        <v>0.1145924085872778</v>
       </c>
       <c r="D19">
-        <v>0.108834626211987</v>
+        <v>0.1470648212773256</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9293233487479142</v>
+        <v>1.94673053723546</v>
       </c>
       <c r="G19">
-        <v>0.0008236951792259235</v>
+        <v>0.002508306870079274</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5381576664664856</v>
+        <v>1.268623615442262</v>
       </c>
       <c r="J19">
-        <v>0.08187202966411711</v>
+        <v>0.2228029077034783</v>
       </c>
       <c r="K19">
-        <v>1.143120594386261</v>
+        <v>0.4107002990085675</v>
       </c>
       <c r="L19">
-        <v>0.2350803532463743</v>
+        <v>0.3541442433877648</v>
       </c>
       <c r="M19">
-        <v>0.2853806778135208</v>
+        <v>0.2220598833349072</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.318676532890436</v>
+        <v>5.045612661301192</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.326207331775038</v>
+        <v>0.6624178211317258</v>
       </c>
       <c r="C20">
-        <v>0.1263647247766784</v>
+        <v>0.1153149889129423</v>
       </c>
       <c r="D20">
-        <v>0.1121174509637797</v>
+        <v>0.1477788177437702</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9349238481043542</v>
+        <v>1.944248031280964</v>
       </c>
       <c r="G20">
-        <v>0.0008223435834830143</v>
+        <v>0.002507478818123464</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5360356350085489</v>
+        <v>1.265582394575951</v>
       </c>
       <c r="J20">
-        <v>0.08116764719417269</v>
+        <v>0.2223286135834694</v>
       </c>
       <c r="K20">
-        <v>1.187597143486698</v>
+        <v>0.4239697412434964</v>
       </c>
       <c r="L20">
-        <v>0.2412995655140122</v>
+        <v>0.3552897076145172</v>
       </c>
       <c r="M20">
-        <v>0.2960338243038123</v>
+        <v>0.2248365490821413</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.323345357735974</v>
+        <v>5.036318236862741</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.495147479134943</v>
+        <v>0.7104218219477616</v>
       </c>
       <c r="C21">
-        <v>0.133420149911089</v>
+        <v>0.117728716192218</v>
       </c>
       <c r="D21">
-        <v>0.1232395357938429</v>
+        <v>0.1502300962832663</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9558134383597476</v>
+        <v>1.936858404199903</v>
       </c>
       <c r="G21">
-        <v>0.0008178799270728678</v>
+        <v>0.002504787720245641</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5301701968782879</v>
+        <v>1.255954835419296</v>
       </c>
       <c r="J21">
-        <v>0.0789018007201836</v>
+        <v>0.2207985010129558</v>
       </c>
       <c r="K21">
-        <v>1.337447420230433</v>
+        <v>0.4685649946638648</v>
       </c>
       <c r="L21">
-        <v>0.2624686564981147</v>
+        <v>0.359278036172995</v>
       </c>
       <c r="M21">
-        <v>0.3320304394237681</v>
+        <v>0.2342431167589325</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.344744927492485</v>
+        <v>5.007621618676694</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.606091440770911</v>
+        <v>0.7419018571852405</v>
       </c>
       <c r="C22">
-        <v>0.1380455171661907</v>
+        <v>0.1192956480926597</v>
       </c>
       <c r="D22">
-        <v>0.1305822775830876</v>
+        <v>0.1518708204154251</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9710925835633901</v>
+        <v>1.932736791262727</v>
       </c>
       <c r="G22">
-        <v>0.0008150184421323263</v>
+        <v>0.002503096519233107</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5273230360013201</v>
+        <v>1.250102407544439</v>
       </c>
       <c r="J22">
-        <v>0.0774977316704657</v>
+        <v>0.2198456770383359</v>
       </c>
       <c r="K22">
-        <v>1.435754610490022</v>
+        <v>0.4977164187612004</v>
       </c>
       <c r="L22">
-        <v>0.2765219063459767</v>
+        <v>0.3619881661201418</v>
       </c>
       <c r="M22">
-        <v>0.3557251145884592</v>
+        <v>0.240447683509359</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.363214455765586</v>
+        <v>4.990751669002009</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.546825177665824</v>
+        <v>0.7250908440981902</v>
       </c>
       <c r="C23">
-        <v>0.1355753477437247</v>
+        <v>0.11846032211362</v>
       </c>
       <c r="D23">
-        <v>0.1266562279482741</v>
+        <v>0.1509916186561355</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9627835577289119</v>
+        <v>1.93487186472143</v>
       </c>
       <c r="G23">
-        <v>0.0008165406997449984</v>
+        <v>0.002503992977997313</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5287494635810859</v>
+        <v>1.25318574726672</v>
       </c>
       <c r="J23">
-        <v>0.07823997214940803</v>
+        <v>0.2203499052076872</v>
       </c>
       <c r="K23">
-        <v>1.383248109687202</v>
+        <v>0.482157406395828</v>
       </c>
       <c r="L23">
-        <v>0.2690005266830582</v>
+        <v>0.3605322853971273</v>
       </c>
       <c r="M23">
-        <v>0.3430622361769124</v>
+        <v>0.2371310420327362</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.352931683762279</v>
+        <v>4.999583116054481</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.32345404634728</v>
+        <v>0.6616350728737643</v>
       </c>
       <c r="C24">
-        <v>0.1262496001899152</v>
+        <v>0.1152753608015686</v>
       </c>
       <c r="D24">
-        <v>0.1119368393771794</v>
+        <v>0.1477394106565413</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9346086995328662</v>
+        <v>1.944380777335333</v>
       </c>
       <c r="G24">
-        <v>0.0008224175100323259</v>
+        <v>0.002507523947741964</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.536147518825679</v>
+        <v>1.265747181321771</v>
       </c>
       <c r="J24">
-        <v>0.08120595351477888</v>
+        <v>0.222354420597096</v>
       </c>
       <c r="K24">
-        <v>1.18515329412881</v>
+        <v>0.4232409952776379</v>
       </c>
       <c r="L24">
-        <v>0.2409570427275867</v>
+        <v>0.3552262769782573</v>
       </c>
       <c r="M24">
-        <v>0.2954480809493987</v>
+        <v>0.2246837747779935</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.323068031834879</v>
+        <v>5.03681911474149</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.084345908375838</v>
+        <v>0.5936688470313811</v>
       </c>
       <c r="C25">
-        <v>0.1162305881886638</v>
+        <v>0.1117951593765554</v>
       </c>
       <c r="D25">
-        <v>0.09634437760472991</v>
+        <v>0.1443996257435174</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9106829932673932</v>
+        <v>1.957683879383275</v>
       </c>
       <c r="G25">
-        <v>0.0008290087994410889</v>
+        <v>0.002511624603210381</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5480835224820879</v>
+        <v>1.281187226616602</v>
       </c>
       <c r="J25">
-        <v>0.08472430657832497</v>
+        <v>0.2247198717243908</v>
       </c>
       <c r="K25">
-        <v>0.9726784535789648</v>
+        <v>0.3597338296439716</v>
       </c>
       <c r="L25">
-        <v>0.2115532587862177</v>
+        <v>0.3499513115011936</v>
       </c>
       <c r="M25">
-        <v>0.244704741381117</v>
+        <v>0.2115066420704004</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.308676236096147</v>
+        <v>5.08508811991112</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_197/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_197/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.544052880380832</v>
+        <v>0.9093712460835661</v>
       </c>
       <c r="C2">
-        <v>0.109194462380934</v>
+        <v>0.1088657897770773</v>
       </c>
       <c r="D2">
-        <v>0.1420870195477448</v>
+        <v>0.0850729783226285</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.970106693555437</v>
+        <v>0.898090527639134</v>
       </c>
       <c r="G2">
-        <v>0.002514897477819356</v>
+        <v>0.00083409297436976</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.294185951249531</v>
+        <v>0.5599900096626982</v>
       </c>
       <c r="J2">
-        <v>0.2266373562450124</v>
+        <v>0.08757877251238</v>
       </c>
       <c r="K2">
-        <v>0.3130208296777539</v>
+        <v>0.8168347233457212</v>
       </c>
       <c r="L2">
-        <v>0.346456203045534</v>
+        <v>0.1905329408435179</v>
       </c>
       <c r="M2">
-        <v>0.2020221111795522</v>
+        <v>0.207753353202115</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.127613954010357</v>
+        <v>2.311937357197877</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5107020152577775</v>
+        <v>0.79123689117867</v>
       </c>
       <c r="C3">
-        <v>0.1074082402434513</v>
+        <v>0.1038721234147033</v>
       </c>
       <c r="D3">
-        <v>0.1406120652089413</v>
+        <v>0.07754845021537449</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.980169137193968</v>
+        <v>0.8924430107357253</v>
       </c>
       <c r="G3">
-        <v>0.002517274981234144</v>
+        <v>0.0008376892878429509</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.304014505332301</v>
+        <v>0.5698729856238138</v>
       </c>
       <c r="J3">
-        <v>0.2280470300602158</v>
+        <v>0.08967302776326314</v>
       </c>
       <c r="K3">
-        <v>0.2813979809856022</v>
+        <v>0.7113961288455926</v>
       </c>
       <c r="L3">
-        <v>0.3443318053242095</v>
+        <v>0.1766351701421485</v>
       </c>
       <c r="M3">
-        <v>0.1957320833141871</v>
+        <v>0.1829129097759186</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.160799965435857</v>
+        <v>2.32211540060969</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4903629570241606</v>
+        <v>0.7188549259596471</v>
       </c>
       <c r="C4">
-        <v>0.1062998747161998</v>
+        <v>0.1008017928749254</v>
       </c>
       <c r="D4">
-        <v>0.1397523330943642</v>
+        <v>0.07297974727359247</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.987159608823063</v>
+        <v>0.8903228059001762</v>
       </c>
       <c r="G4">
-        <v>0.002518813839823748</v>
+        <v>0.0008399738314883848</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.310552747517324</v>
+        <v>0.5767952065943582</v>
       </c>
       <c r="J4">
-        <v>0.2289670855002797</v>
+        <v>0.09103618286018822</v>
       </c>
       <c r="K4">
-        <v>0.2620010781769508</v>
+        <v>0.6466854274663945</v>
       </c>
       <c r="L4">
-        <v>0.3431485506743286</v>
+        <v>0.1682598267089972</v>
       </c>
       <c r="M4">
-        <v>0.1919386739211895</v>
+        <v>0.167743949968056</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.183332688975668</v>
+        <v>2.332086068574853</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4821101143323574</v>
+        <v>0.6893881826321433</v>
       </c>
       <c r="C5">
-        <v>0.1058453046469126</v>
+        <v>0.09954916020597437</v>
       </c>
       <c r="D5">
-        <v>0.1394135914779113</v>
+        <v>0.07113022455317264</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.990212732729162</v>
+        <v>0.8897868725632136</v>
       </c>
       <c r="G5">
-        <v>0.002519460875702515</v>
+        <v>0.0008409242948834994</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.313343843177243</v>
+        <v>0.579825051368168</v>
       </c>
       <c r="J5">
-        <v>0.22935574515075</v>
+        <v>0.09161088890874503</v>
       </c>
       <c r="K5">
-        <v>0.2541021463615039</v>
+        <v>0.6203148068541395</v>
       </c>
       <c r="L5">
-        <v>0.3426969434719211</v>
+        <v>0.1648846626338454</v>
       </c>
       <c r="M5">
-        <v>0.1904102539501338</v>
+        <v>0.1615811980492019</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.193057653636089</v>
+        <v>2.337055467492604</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4807418989637426</v>
+        <v>0.6844967808582396</v>
       </c>
       <c r="C6">
-        <v>0.1057696489250119</v>
+        <v>0.09934106307542834</v>
       </c>
       <c r="D6">
-        <v>0.1393580465987796</v>
+        <v>0.07082383454399377</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.990732057052043</v>
+        <v>0.8897173904801292</v>
       </c>
       <c r="G6">
-        <v>0.002519569521453604</v>
+        <v>0.0008410833039564913</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.313814958543762</v>
+        <v>0.5803406129122095</v>
       </c>
       <c r="J6">
-        <v>0.2294211116880867</v>
+        <v>0.09170747228620257</v>
       </c>
       <c r="K6">
-        <v>0.2527908801087904</v>
+        <v>0.6159357371063123</v>
       </c>
       <c r="L6">
-        <v>0.3426238048039778</v>
+        <v>0.1643264529685382</v>
       </c>
       <c r="M6">
-        <v>0.1901575178830264</v>
+        <v>0.1605589467003661</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.194705267640401</v>
+        <v>2.337934531825056</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4902515117327937</v>
+        <v>0.7184574192380921</v>
       </c>
       <c r="C7">
-        <v>0.1062937559491459</v>
+        <v>0.1007849057960897</v>
       </c>
       <c r="D7">
-        <v>0.1397477176262214</v>
+        <v>0.07295475516953331</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.987199956187325</v>
+        <v>0.8903142636345507</v>
       </c>
       <c r="G7">
-        <v>0.002518822485126426</v>
+        <v>0.0008399865704155659</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.310589876028185</v>
+        <v>0.5768352294125627</v>
       </c>
       <c r="J7">
-        <v>0.2289722714793978</v>
+        <v>0.09104385605546028</v>
       </c>
       <c r="K7">
-        <v>0.2618945276057758</v>
+        <v>0.6463297959844567</v>
       </c>
       <c r="L7">
-        <v>0.3431423361722068</v>
+        <v>0.1682141571798681</v>
       </c>
       <c r="M7">
-        <v>0.1919179903595598</v>
+        <v>0.1676607639480991</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.183461645285433</v>
+        <v>2.332149456158646</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5325251391345489</v>
+        <v>0.8686011708729495</v>
       </c>
       <c r="C8">
-        <v>0.1085809953457826</v>
+        <v>0.107144599740046</v>
       </c>
       <c r="D8">
-        <v>0.1415689680749423</v>
+        <v>0.08246744514915605</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.97340781933395</v>
+        <v>0.8958569925726465</v>
       </c>
       <c r="G8">
-        <v>0.002515700866398975</v>
+        <v>0.0008353173025442709</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.297470405968681</v>
+        <v>0.5632168544097595</v>
       </c>
       <c r="J8">
-        <v>0.2271121118817003</v>
+        <v>0.08828469748107004</v>
       </c>
       <c r="K8">
-        <v>0.3021134948064628</v>
+        <v>0.7804686216675236</v>
       </c>
       <c r="L8">
-        <v>0.3456986390755148</v>
+        <v>0.1857070567534649</v>
       </c>
       <c r="M8">
-        <v>0.1998391409402949</v>
+        <v>0.1991697432905504</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.138609207614081</v>
+        <v>2.314656227875318</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6164979974180085</v>
+        <v>1.164690518708653</v>
       </c>
       <c r="C9">
-        <v>0.1129734287138646</v>
+        <v>0.1196021989101865</v>
       </c>
       <c r="D9">
-        <v>0.1455020098360151</v>
+        <v>0.1015619387847124</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.952795049022704</v>
+        <v>0.9179275672913434</v>
       </c>
       <c r="G9">
-        <v>0.002510204066756931</v>
+        <v>0.000826753534746245</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.275733266319772</v>
+        <v>0.5435602514635249</v>
       </c>
       <c r="J9">
-        <v>0.2238958216218254</v>
+        <v>0.08349747042718469</v>
       </c>
       <c r="K9">
-        <v>0.3811197199326841</v>
+        <v>1.044130099698918</v>
       </c>
       <c r="L9">
-        <v>0.3516680141623425</v>
+        <v>0.2213539259119273</v>
       </c>
       <c r="M9">
-        <v>0.215911800475979</v>
+        <v>0.2617263170041291</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.067744565034843</v>
+        <v>2.311277284186957</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.67882125468401</v>
+        <v>1.383913309354455</v>
       </c>
       <c r="C10">
-        <v>0.1161433632128706</v>
+        <v>0.1287765287911711</v>
       </c>
       <c r="D10">
-        <v>0.1486089792145435</v>
+        <v>0.115907861134886</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.941560474248043</v>
+        <v>0.9417206426070024</v>
       </c>
       <c r="G10">
-        <v>0.002506542699955731</v>
+        <v>0.0008208032486862403</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.262189133768011</v>
+        <v>0.5338140970703229</v>
       </c>
       <c r="J10">
-        <v>0.2217943980504558</v>
+        <v>0.08037528705322572</v>
       </c>
       <c r="K10">
-        <v>0.4392293172484187</v>
+        <v>1.238804789355612</v>
       </c>
       <c r="L10">
-        <v>0.3566313124179601</v>
+        <v>0.2484973298301156</v>
       </c>
       <c r="M10">
-        <v>0.2280428013658096</v>
+        <v>0.3083172935319354</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.026075354328384</v>
+        <v>2.329698428375849</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7073049387301182</v>
+        <v>1.484170911275726</v>
       </c>
       <c r="C11">
-        <v>0.1175729242778374</v>
+        <v>0.1329622090581566</v>
       </c>
       <c r="D11">
-        <v>0.1500689957414352</v>
+        <v>0.1225146456562953</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.937295958289759</v>
+        <v>0.9543667578234079</v>
       </c>
       <c r="G11">
-        <v>0.002504958155047063</v>
+        <v>0.0008181658725584078</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.256553049794377</v>
+        <v>0.5304937216480567</v>
       </c>
       <c r="J11">
-        <v>0.2208948975269749</v>
+        <v>0.07904418424713278</v>
       </c>
       <c r="K11">
-        <v>0.4656748833012045</v>
+        <v>1.327717007913037</v>
       </c>
       <c r="L11">
-        <v>0.3590135513199328</v>
+        <v>0.2610845250918175</v>
       </c>
       <c r="M11">
-        <v>0.2336302549098406</v>
+        <v>0.329688435352594</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.009371220390818</v>
+        <v>2.343101742772319</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7181094440250035</v>
+        <v>1.52222633165232</v>
       </c>
       <c r="C12">
-        <v>0.1181124548787977</v>
+        <v>0.1345496217893754</v>
       </c>
       <c r="D12">
-        <v>0.1506285122901403</v>
+        <v>0.1250290709676989</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.935802550333491</v>
+        <v>0.9594332603543876</v>
       </c>
       <c r="G12">
-        <v>0.00250436972161793</v>
+        <v>0.0008171767572345279</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.254494235936967</v>
+        <v>0.5294048345020599</v>
       </c>
       <c r="J12">
-        <v>0.2205623742736513</v>
+        <v>0.07855327131917456</v>
       </c>
       <c r="K12">
-        <v>0.4756902933697802</v>
+        <v>1.361448803658135</v>
       </c>
       <c r="L12">
-        <v>0.3599334243002943</v>
+        <v>0.2658881888074092</v>
       </c>
       <c r="M12">
-        <v>0.2357558650575271</v>
+        <v>0.3378098957380899</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.003369141360906</v>
+        <v>2.348942734594289</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7157816954632494</v>
+        <v>1.514026185640375</v>
       </c>
       <c r="C13">
-        <v>0.1179963382953275</v>
+        <v>0.1342076273713104</v>
       </c>
       <c r="D13">
-        <v>0.1505077161394155</v>
+        <v>0.1244869689494834</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.936118783211072</v>
+        <v>0.9583294884859868</v>
       </c>
       <c r="G13">
-        <v>0.002504495936143868</v>
+        <v>0.0008173893602003473</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.254934283933657</v>
+        <v>0.5296317138543358</v>
       </c>
       <c r="J13">
-        <v>0.2206336292433626</v>
+        <v>0.07865840817995107</v>
       </c>
       <c r="K13">
-        <v>0.4735332579812166</v>
+        <v>1.354181073729364</v>
       </c>
       <c r="L13">
-        <v>0.3597345247295749</v>
+        <v>0.2648519356541641</v>
       </c>
       <c r="M13">
-        <v>0.2352976452148212</v>
+        <v>0.336059464280531</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.00464741786945</v>
+        <v>2.347650012790098</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7081934681035875</v>
+        <v>1.487299868126712</v>
       </c>
       <c r="C14">
-        <v>0.1176173482470659</v>
+        <v>0.1330927548523064</v>
       </c>
       <c r="D14">
-        <v>0.1501148948121198</v>
+        <v>0.122721251068711</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.937170661410164</v>
+        <v>0.9547779236245688</v>
       </c>
       <c r="G14">
-        <v>0.002504909511941392</v>
+        <v>0.0008180843072821409</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.256382158264969</v>
+        <v>0.5304007119421854</v>
       </c>
       <c r="J14">
-        <v>0.2208673784495652</v>
+        <v>0.07900353115732095</v>
       </c>
       <c r="K14">
-        <v>0.4664988393415115</v>
+        <v>1.330490816471041</v>
       </c>
       <c r="L14">
-        <v>0.3590888743521532</v>
+        <v>0.2614789643067752</v>
       </c>
       <c r="M14">
-        <v>0.2338049353881075</v>
+        <v>0.3303559986293436</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.008870945953504</v>
+        <v>2.343566687155345</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.703547828881824</v>
+        <v>1.470941370948111</v>
       </c>
       <c r="C15">
-        <v>0.1173849691316349</v>
+        <v>0.132410193532337</v>
       </c>
       <c r="D15">
-        <v>0.1498751431448682</v>
+        <v>0.1216413658546429</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.937830780340974</v>
+        <v>0.9526391320150722</v>
       </c>
       <c r="G15">
-        <v>0.002505164348058754</v>
+        <v>0.0008185112210958927</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.25727884652192</v>
+        <v>0.5308939430248643</v>
       </c>
       <c r="J15">
-        <v>0.221011610633715</v>
+        <v>0.07921665089811469</v>
       </c>
       <c r="K15">
-        <v>0.4621901745592254</v>
+        <v>1.315988375778801</v>
       </c>
       <c r="L15">
-        <v>0.3586957056031679</v>
+        <v>0.2594178459044798</v>
       </c>
       <c r="M15">
-        <v>0.2328918741898249</v>
+        <v>0.3268662960537654</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.011500086982721</v>
+        <v>2.341166542820304</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6769623853922724</v>
+        <v>1.377373081124091</v>
       </c>
       <c r="C16">
-        <v>0.1160496854903172</v>
+        <v>0.1285032833620434</v>
       </c>
       <c r="D16">
-        <v>0.1485144965090797</v>
+        <v>0.1154777984676656</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.941856179674957</v>
+        <v>0.9409321755039031</v>
       </c>
       <c r="G16">
-        <v>0.002506647879777679</v>
+        <v>0.000820976972413134</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.26256802719589</v>
+        <v>0.5340541969856964</v>
       </c>
       <c r="J16">
-        <v>0.221854316766315</v>
+        <v>0.08046409955903577</v>
       </c>
       <c r="K16">
-        <v>0.4375012147283428</v>
+        <v>1.233002274600352</v>
       </c>
       <c r="L16">
-        <v>0.3564781207553267</v>
+        <v>0.2476797756269491</v>
       </c>
       <c r="M16">
-        <v>0.2276790229672301</v>
+        <v>0.3069244685540795</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.027212284067275</v>
+        <v>2.328927194372852</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6606865174078678</v>
+        <v>1.320117573853878</v>
       </c>
       <c r="C17">
-        <v>0.115227325952489</v>
+        <v>0.1261100839594818</v>
       </c>
       <c r="D17">
-        <v>0.1476916820169123</v>
+        <v>0.1117180012329868</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.944542205952054</v>
+        <v>0.9342279314018356</v>
       </c>
       <c r="G17">
-        <v>0.00250757869426754</v>
+        <v>0.0008225071497193881</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.265947233091236</v>
+        <v>0.5362838316492464</v>
       </c>
       <c r="J17">
-        <v>0.2223857336876485</v>
+        <v>0.08125243600652077</v>
       </c>
       <c r="K17">
-        <v>0.4223578084746862</v>
+        <v>1.182191724169968</v>
       </c>
       <c r="L17">
-        <v>0.3551494837539337</v>
+        <v>0.2405420802412834</v>
       </c>
       <c r="M17">
-        <v>0.224498666731634</v>
+        <v>0.2947383093089186</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.037427607227613</v>
+        <v>2.322735161059597</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6513375841884965</v>
+        <v>1.287234934972673</v>
       </c>
       <c r="C18">
-        <v>0.1147531551757339</v>
+        <v>0.1247346897302606</v>
       </c>
       <c r="D18">
-        <v>0.1472228149068684</v>
+        <v>0.1095630046285692</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.946166792879566</v>
+        <v>0.9305423802464077</v>
       </c>
       <c r="G18">
-        <v>0.002508121704208792</v>
+        <v>0.0008233938273514205</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.267940302686068</v>
+        <v>0.5376705052227031</v>
       </c>
       <c r="J18">
-        <v>0.2226967048892252</v>
+        <v>0.08171424135192851</v>
       </c>
       <c r="K18">
-        <v>0.4136488113900896</v>
+        <v>1.152999378525436</v>
       </c>
       <c r="L18">
-        <v>0.3543970040302327</v>
+        <v>0.2364590386724643</v>
       </c>
       <c r="M18">
-        <v>0.2226759140998453</v>
+        <v>0.2877455736478609</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.043515123207925</v>
+        <v>2.319643758042986</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.648174367078127</v>
+        <v>1.276109493936332</v>
       </c>
       <c r="C19">
-        <v>0.1145924085872778</v>
+        <v>0.1242691773535824</v>
       </c>
       <c r="D19">
-        <v>0.1470648212773256</v>
+        <v>0.1088346262120297</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.94673053723546</v>
+        <v>0.9293233487479</v>
       </c>
       <c r="G19">
-        <v>0.002508306870079274</v>
+        <v>0.0008236951791164571</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.268623615442262</v>
+        <v>0.538157666466482</v>
       </c>
       <c r="J19">
-        <v>0.2228029077034783</v>
+        <v>0.08187202966406737</v>
       </c>
       <c r="K19">
-        <v>0.4107002990085675</v>
+        <v>1.143120594386346</v>
       </c>
       <c r="L19">
-        <v>0.3541442433877648</v>
+        <v>0.235080353246488</v>
       </c>
       <c r="M19">
-        <v>0.2220598833349072</v>
+        <v>0.2853806778134995</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.045612661301192</v>
+        <v>2.318676532890407</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6624178211317258</v>
+        <v>1.326207331775095</v>
       </c>
       <c r="C20">
-        <v>0.1153149889129423</v>
+        <v>0.1263647247766642</v>
       </c>
       <c r="D20">
-        <v>0.1477788177437702</v>
+        <v>0.1121174509639076</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.944248031280964</v>
+        <v>0.9349238481043542</v>
       </c>
       <c r="G20">
-        <v>0.002507478818123464</v>
+        <v>0.0008223435834826124</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.265582394575951</v>
+        <v>0.5360356350085453</v>
       </c>
       <c r="J20">
-        <v>0.2223286135834694</v>
+        <v>0.08116764719417269</v>
       </c>
       <c r="K20">
-        <v>0.4239697412434964</v>
+        <v>1.187597143486869</v>
       </c>
       <c r="L20">
-        <v>0.3552897076145172</v>
+        <v>0.2412995655140691</v>
       </c>
       <c r="M20">
-        <v>0.2248365490821413</v>
+        <v>0.2960338243038052</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.036318236862741</v>
+        <v>2.323345357735974</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7104218219477616</v>
+        <v>1.495147479134914</v>
       </c>
       <c r="C21">
-        <v>0.117728716192218</v>
+        <v>0.1334201499108474</v>
       </c>
       <c r="D21">
-        <v>0.1502300962832663</v>
+        <v>0.1232395357937861</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.936858404199903</v>
+        <v>0.9558134383597263</v>
       </c>
       <c r="G21">
-        <v>0.002504787720245641</v>
+        <v>0.0008178799270711326</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.255954835419296</v>
+        <v>0.5301701968782737</v>
       </c>
       <c r="J21">
-        <v>0.2207985010129558</v>
+        <v>0.07890180072010722</v>
       </c>
       <c r="K21">
-        <v>0.4685649946638648</v>
+        <v>1.337447420230404</v>
       </c>
       <c r="L21">
-        <v>0.359278036172995</v>
+        <v>0.2624686564981573</v>
       </c>
       <c r="M21">
-        <v>0.2342431167589325</v>
+        <v>0.332030439423761</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.007621618676694</v>
+        <v>2.344744927492428</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7419018571852405</v>
+        <v>1.606091440771166</v>
       </c>
       <c r="C22">
-        <v>0.1192956480926597</v>
+        <v>0.1380455171672139</v>
       </c>
       <c r="D22">
-        <v>0.1518708204154251</v>
+        <v>0.1305822775832581</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.932736791262727</v>
+        <v>0.9710925835633901</v>
       </c>
       <c r="G22">
-        <v>0.002503096519233107</v>
+        <v>0.0008150184421083978</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.250102407544439</v>
+        <v>0.527323036001313</v>
       </c>
       <c r="J22">
-        <v>0.2198456770383359</v>
+        <v>0.07749773167038398</v>
       </c>
       <c r="K22">
-        <v>0.4977164187612004</v>
+        <v>1.435754610489937</v>
       </c>
       <c r="L22">
-        <v>0.3619881661201418</v>
+        <v>0.2765219063459341</v>
       </c>
       <c r="M22">
-        <v>0.240447683509359</v>
+        <v>0.3557251145884592</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.990751669002009</v>
+        <v>2.363214455765672</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7250908440981902</v>
+        <v>1.546825177665681</v>
       </c>
       <c r="C23">
-        <v>0.11846032211362</v>
+        <v>0.1355753477437247</v>
       </c>
       <c r="D23">
-        <v>0.1509916186561355</v>
+        <v>0.1266562279483878</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.93487186472143</v>
+        <v>0.9627835577288977</v>
       </c>
       <c r="G23">
-        <v>0.002503992977997313</v>
+        <v>0.0008165406996893272</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.25318574726672</v>
+        <v>0.5287494635810646</v>
       </c>
       <c r="J23">
-        <v>0.2203499052076872</v>
+        <v>0.07823997214946488</v>
       </c>
       <c r="K23">
-        <v>0.482157406395828</v>
+        <v>1.38324810968723</v>
       </c>
       <c r="L23">
-        <v>0.3605322853971273</v>
+        <v>0.2690005266829729</v>
       </c>
       <c r="M23">
-        <v>0.2371310420327362</v>
+        <v>0.3430622361769053</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.999583116054481</v>
+        <v>2.352931683762307</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6616350728737643</v>
+        <v>1.32345404634728</v>
       </c>
       <c r="C24">
-        <v>0.1152753608015686</v>
+        <v>0.1262496001901496</v>
       </c>
       <c r="D24">
-        <v>0.1477394106565413</v>
+        <v>0.1119368393769378</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.944380777335333</v>
+        <v>0.9346086995328733</v>
       </c>
       <c r="G24">
-        <v>0.002507523947741964</v>
+        <v>0.0008224175100859188</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.265747181321771</v>
+        <v>0.5361475188256684</v>
       </c>
       <c r="J24">
-        <v>0.222354420597096</v>
+        <v>0.0812059535148304</v>
       </c>
       <c r="K24">
-        <v>0.4232409952776379</v>
+        <v>1.185153294128838</v>
       </c>
       <c r="L24">
-        <v>0.3552262769782573</v>
+        <v>0.2409570427277004</v>
       </c>
       <c r="M24">
-        <v>0.2246837747779935</v>
+        <v>0.2954480809493916</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.03681911474149</v>
+        <v>2.323068031834907</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5936688470313811</v>
+        <v>1.084345908375866</v>
       </c>
       <c r="C25">
-        <v>0.1117951593765554</v>
+        <v>0.1162305881889765</v>
       </c>
       <c r="D25">
-        <v>0.1443996257435174</v>
+        <v>0.09634437760485071</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.957683879383275</v>
+        <v>0.9106829932673932</v>
       </c>
       <c r="G25">
-        <v>0.002511624603210381</v>
+        <v>0.0008290087994996217</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.281187226616602</v>
+        <v>0.5480835224821021</v>
       </c>
       <c r="J25">
-        <v>0.2247198717243908</v>
+        <v>0.08472430657846886</v>
       </c>
       <c r="K25">
-        <v>0.3597338296439716</v>
+        <v>0.9726784535790216</v>
       </c>
       <c r="L25">
-        <v>0.3499513115011936</v>
+        <v>0.2115532587862248</v>
       </c>
       <c r="M25">
-        <v>0.2115066420704004</v>
+        <v>0.2447047413811063</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.08508811991112</v>
+        <v>2.308676236096204</v>
       </c>
     </row>
   </sheetData>
